--- a/biology/Zoologie/Chuang_Chuang_et_Lin_Hui/Chuang_Chuang_et_Lin_Hui.xlsx
+++ b/biology/Zoologie/Chuang_Chuang_et_Lin_Hui/Chuang_Chuang_et_Lin_Hui.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chuang Chuang et Lin Hui sont deux pandas géants originaires du Sichuan, en Chine, prêtés au zoo de Chiang Mai dans la ville du même nom, en Thaïlande[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chuang Chuang et Lin Hui sont deux pandas géants originaires du Sichuan, en Chine, prêtés au zoo de Chiang Mai dans la ville du même nom, en Thaïlande.
 </t>
         </is>
       </c>
@@ -511,14 +523,16 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chuang Chuang, mâle, est né le 6 août 2000 au Centre chinois de conservation et de recherche pour les pandas géants à Wolong, dans la province du Sichuan, en Chine[2]. La mère de Chuang Chuang est Bai Xue et son père est Xin Xing.
-Lin Hui, femelle, est née le 28 septembre 2001, également du Centre chinois de conservation et de recherche pour les pandas géants à Wolong. La mère de Lin Hui est Tang Tang et son père est Pan Pan[1],[2].
-Prêtés par la ville de Chengdu, les pandas sont arrivés au zoo de Chiang Mai le 12 octobre 2003 pour commencer un programme de conservation de 10 ans visant à élever des pandas géants[1],[3].
-Chuang Chuang et Linhui, à la suite d'une reproduction artificielle, attendent leur première progéniture nommée Lin Ping[4],[5]. Le bébé panda femelle naît le 27 mai 2009 et réside également au zoo de Chiang Mai[6],[7].
-Chuang Chuang décède le 16 septembre 2019 dans son enclos. Les responsables ont déclaré qu'il s'était effondré peu après s'être levé après un repas de feuilles de bambou[8].
-Lin Hui s'éteint le 19 avril 2023[9]. Son état se détériore dans la nuit après un saignement du nez le 18 avril au soir. Elle devait être rendue à la Chine en octobre 2023.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chuang Chuang, mâle, est né le 6 août 2000 au Centre chinois de conservation et de recherche pour les pandas géants à Wolong, dans la province du Sichuan, en Chine. La mère de Chuang Chuang est Bai Xue et son père est Xin Xing.
+Lin Hui, femelle, est née le 28 septembre 2001, également du Centre chinois de conservation et de recherche pour les pandas géants à Wolong. La mère de Lin Hui est Tang Tang et son père est Pan Pan,.
+Prêtés par la ville de Chengdu, les pandas sont arrivés au zoo de Chiang Mai le 12 octobre 2003 pour commencer un programme de conservation de 10 ans visant à élever des pandas géants,.
+Chuang Chuang et Linhui, à la suite d'une reproduction artificielle, attendent leur première progéniture nommée Lin Ping,. Le bébé panda femelle naît le 27 mai 2009 et réside également au zoo de Chiang Mai,.
+Chuang Chuang décède le 16 septembre 2019 dans son enclos. Les responsables ont déclaré qu'il s'était effondré peu après s'être levé après un repas de feuilles de bambou.
+Lin Hui s'éteint le 19 avril 2023. Son état se détériore dans la nuit après un saignement du nez le 18 avril au soir. Elle devait être rendue à la Chine en octobre 2023.
 La vie de Chuang Chuang et Lin Hui était très suivie par les Thaïlandais. Une chaîne dédiée avait même fonctionné de 2009 à 2012, diffusant 24 heures sur 24.
 Après le décès de Lin Hui, la Thaïlande n'a plus de panda.
 </t>
@@ -550,6 +564,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
